--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H2">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I2">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J2">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>11.27132661209459</v>
+        <v>18.29777199791867</v>
       </c>
       <c r="R2">
-        <v>11.27132661209459</v>
+        <v>164.679947981268</v>
       </c>
       <c r="S2">
-        <v>0.004577655535552951</v>
+        <v>0.005833744438017075</v>
       </c>
       <c r="T2">
-        <v>0.004577655535552951</v>
+        <v>0.006803414221314835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H3">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I3">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J3">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>712.8152638654685</v>
+        <v>922.5532457350646</v>
       </c>
       <c r="R3">
-        <v>712.8152638654685</v>
+        <v>8302.979211615582</v>
       </c>
       <c r="S3">
-        <v>0.2894976652490082</v>
+        <v>0.2941308847161128</v>
       </c>
       <c r="T3">
-        <v>0.2894976652490082</v>
+        <v>0.3430205531399144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H4">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I4">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J4">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>5.294005584270443</v>
+        <v>1.998578116594</v>
       </c>
       <c r="R4">
-        <v>5.294005584270443</v>
+        <v>17.987203049346</v>
       </c>
       <c r="S4">
-        <v>0.002150069357592709</v>
+        <v>0.0006371920020070802</v>
       </c>
       <c r="T4">
-        <v>0.002150069357592709</v>
+        <v>0.0007431043944798791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H5">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I5">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J5">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.918771390257</v>
+        <v>0.655122</v>
       </c>
       <c r="N5">
-        <v>17.918771390257</v>
+        <v>1.965366</v>
       </c>
       <c r="O5">
-        <v>0.2356939554538648</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P5">
-        <v>0.2356939554538648</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q5">
-        <v>224.9237709734406</v>
+        <v>9.898187853605998</v>
       </c>
       <c r="R5">
-        <v>224.9237709734406</v>
+        <v>89.08369068245399</v>
       </c>
       <c r="S5">
-        <v>0.09134892286496128</v>
+        <v>0.003155766633445338</v>
       </c>
       <c r="T5">
-        <v>0.09134892286496128</v>
+        <v>0.003680309931511267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.3237161220429</v>
+        <v>15.108923</v>
       </c>
       <c r="H6">
-        <v>10.3237161220429</v>
+        <v>45.326769</v>
       </c>
       <c r="I6">
-        <v>0.3187600692409899</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J6">
-        <v>0.3187600692409899</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.897941217831048</v>
+        <v>19.068426</v>
       </c>
       <c r="N6">
-        <v>0.897941217831048</v>
+        <v>38.136852</v>
       </c>
       <c r="O6">
-        <v>0.01181103953983894</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P6">
-        <v>0.01181103953983894</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q6">
-        <v>9.270090227169225</v>
+        <v>288.103380165198</v>
       </c>
       <c r="R6">
-        <v>9.270090227169225</v>
+        <v>1728.620280991188</v>
       </c>
       <c r="S6">
-        <v>0.003764887781527129</v>
+        <v>0.09185388755548057</v>
       </c>
       <c r="T6">
-        <v>0.003764887781527129</v>
+        <v>0.07141440076411991</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H7">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I7">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J7">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.7871225945224</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N7">
-        <v>56.7871225945224</v>
+        <v>3.633172</v>
       </c>
       <c r="O7">
-        <v>0.7469475027972082</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P7">
-        <v>0.7469475027972082</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q7">
-        <v>586.2541330534975</v>
+        <v>13.80946958905155</v>
       </c>
       <c r="R7">
-        <v>586.2541330534975</v>
+        <v>124.285226301464</v>
       </c>
       <c r="S7">
-        <v>0.2380970377110226</v>
+        <v>0.00440277190120519</v>
       </c>
       <c r="T7">
-        <v>0.2380970377110226</v>
+        <v>0.005134589162093334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H8">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I8">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J8">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421752113583795</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N8">
-        <v>0.421752113583795</v>
+        <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.005547502209087931</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P8">
-        <v>0.005547502209087931</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q8">
-        <v>4.354049094510692</v>
+        <v>696.2580467560928</v>
       </c>
       <c r="R8">
-        <v>4.354049094510692</v>
+        <v>6266.322420804835</v>
       </c>
       <c r="S8">
-        <v>0.001768322188283413</v>
+        <v>0.2219828462257596</v>
       </c>
       <c r="T8">
-        <v>0.001768322188283413</v>
+        <v>0.2588802558882091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H9">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I9">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J9">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.918771390257</v>
+        <v>0.132278</v>
       </c>
       <c r="N9">
-        <v>17.918771390257</v>
+        <v>0.396834</v>
       </c>
       <c r="O9">
-        <v>0.2356939554538648</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P9">
-        <v>0.2356939554538648</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q9">
-        <v>184.9883090887973</v>
+        <v>1.508342312145333</v>
       </c>
       <c r="R9">
-        <v>184.9883090887973</v>
+        <v>13.575080809308</v>
       </c>
       <c r="S9">
-        <v>0.07512982156015674</v>
+        <v>0.0004808937161914878</v>
       </c>
       <c r="T9">
-        <v>0.07512982156015674</v>
+        <v>0.0005608266152965359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.46517081332432</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H10">
-        <v>1.46517081332432</v>
+        <v>34.208462</v>
       </c>
       <c r="I10">
-        <v>0.04523932510193029</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J10">
-        <v>0.04523932510193029</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.897941217831048</v>
+        <v>0.655122</v>
       </c>
       <c r="N10">
-        <v>0.897941217831048</v>
+        <v>1.965366</v>
       </c>
       <c r="O10">
-        <v>0.01181103953983894</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P10">
-        <v>0.01181103953983894</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q10">
-        <v>1.315637264446947</v>
+        <v>7.470238680787999</v>
       </c>
       <c r="R10">
-        <v>1.315637264446947</v>
+        <v>67.23214812709199</v>
       </c>
       <c r="S10">
-        <v>0.0005343234575345268</v>
+        <v>0.002381681406876426</v>
       </c>
       <c r="T10">
-        <v>0.0005343234575345268</v>
+        <v>0.002777558277765745</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.46517081332432</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H11">
-        <v>1.46517081332432</v>
+        <v>34.208462</v>
       </c>
       <c r="I11">
-        <v>0.04523932510193029</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J11">
-        <v>0.04523932510193029</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.7871225945224</v>
+        <v>19.068426</v>
       </c>
       <c r="N11">
-        <v>56.7871225945224</v>
+        <v>38.136852</v>
       </c>
       <c r="O11">
-        <v>0.7469475027972082</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P11">
-        <v>0.7469475027972082</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q11">
-        <v>83.20283459816426</v>
+        <v>217.433842073604</v>
       </c>
       <c r="R11">
-        <v>83.20283459816426</v>
+        <v>1304.603052441624</v>
       </c>
       <c r="S11">
-        <v>0.03379140091311789</v>
+        <v>0.06932283706332411</v>
       </c>
       <c r="T11">
-        <v>0.03379140091311789</v>
+        <v>0.05389699880863263</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H12">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I12">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J12">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.421752113583795</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N12">
-        <v>0.421752113583795</v>
+        <v>3.633172</v>
       </c>
       <c r="O12">
-        <v>0.005547502209087931</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P12">
-        <v>0.005547502209087931</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q12">
-        <v>0.6179388872808199</v>
+        <v>2.428719773362667</v>
       </c>
       <c r="R12">
-        <v>0.6179388872808199</v>
+        <v>21.858477960264</v>
       </c>
       <c r="S12">
-        <v>0.0002509652559406054</v>
+        <v>0.0007743309114884692</v>
       </c>
       <c r="T12">
-        <v>0.0002509652559406054</v>
+        <v>0.0009030381757715438</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H13">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I13">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J13">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.918771390257</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N13">
-        <v>17.918771390257</v>
+        <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.2356939554538648</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P13">
-        <v>0.2356939554538648</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q13">
-        <v>26.2540608516354</v>
+        <v>122.4533407756707</v>
       </c>
       <c r="R13">
-        <v>26.2540608516354</v>
+        <v>1102.080066981036</v>
       </c>
       <c r="S13">
-        <v>0.01066263547533727</v>
+        <v>0.03904090048492982</v>
       </c>
       <c r="T13">
-        <v>0.01066263547533727</v>
+        <v>0.04553017712623553</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.42225596032678</v>
+        <v>2.005454</v>
       </c>
       <c r="H14">
-        <v>1.42225596032678</v>
+        <v>6.016362</v>
       </c>
       <c r="I14">
-        <v>0.04391426527354595</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J14">
-        <v>0.04391426527354595</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.897941217831048</v>
+        <v>0.132278</v>
       </c>
       <c r="N14">
-        <v>0.897941217831048</v>
+        <v>0.396834</v>
       </c>
       <c r="O14">
-        <v>0.01181103953983894</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P14">
-        <v>0.01181103953983894</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q14">
-        <v>1.277102249083296</v>
+        <v>0.265277444212</v>
       </c>
       <c r="R14">
-        <v>1.277102249083296</v>
+        <v>2.387496997908</v>
       </c>
       <c r="S14">
-        <v>0.0005186731235088272</v>
+        <v>8.457646181618023E-05</v>
       </c>
       <c r="T14">
-        <v>0.0005186731235088272</v>
+        <v>9.863454068349222E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.42225596032678</v>
+        <v>2.005454</v>
       </c>
       <c r="H15">
-        <v>1.42225596032678</v>
+        <v>6.016362</v>
       </c>
       <c r="I15">
-        <v>0.04391426527354595</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J15">
-        <v>0.04391426527354595</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.7871225945224</v>
+        <v>0.655122</v>
       </c>
       <c r="N15">
-        <v>56.7871225945224</v>
+        <v>1.965366</v>
       </c>
       <c r="O15">
-        <v>0.7469475027972082</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P15">
-        <v>0.7469475027972082</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q15">
-        <v>80.76582357986705</v>
+        <v>1.313817035388</v>
       </c>
       <c r="R15">
-        <v>80.76582357986705</v>
+        <v>11.824353318492</v>
       </c>
       <c r="S15">
-        <v>0.03280165078324931</v>
+        <v>0.0004188746489812336</v>
       </c>
       <c r="T15">
-        <v>0.03280165078324931</v>
+        <v>0.0004884989005099169</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.42225596032678</v>
+        <v>2.005454</v>
       </c>
       <c r="H16">
-        <v>1.42225596032678</v>
+        <v>6.016362</v>
       </c>
       <c r="I16">
-        <v>0.04391426527354595</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J16">
-        <v>0.04391426527354595</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.421752113583795</v>
+        <v>19.068426</v>
       </c>
       <c r="N16">
-        <v>0.421752113583795</v>
+        <v>38.136852</v>
       </c>
       <c r="O16">
-        <v>0.005547502209087931</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P16">
-        <v>0.005547502209087931</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q16">
-        <v>0.5998394573249695</v>
+        <v>38.240851195404</v>
       </c>
       <c r="R16">
-        <v>0.5998394573249695</v>
+        <v>229.445107172424</v>
       </c>
       <c r="S16">
-        <v>0.0002436144836154696</v>
+        <v>0.01219205010269023</v>
       </c>
       <c r="T16">
-        <v>0.0002436144836154696</v>
+        <v>0.009479053912049677</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H17">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I17">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J17">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.918771390257</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N17">
-        <v>17.918771390257</v>
+        <v>3.633172</v>
       </c>
       <c r="O17">
-        <v>0.2356939554538648</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P17">
-        <v>0.2356939554538648</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q17">
-        <v>25.485079411526</v>
+        <v>1.920226671843556</v>
       </c>
       <c r="R17">
-        <v>25.485079411526</v>
+        <v>17.282040046592</v>
       </c>
       <c r="S17">
-        <v>0.01035032688317234</v>
+        <v>0.0006122117855591161</v>
       </c>
       <c r="T17">
-        <v>0.01035032688317234</v>
+        <v>0.0007139720316142596</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.6235526902882</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H18">
-        <v>6.6235526902882</v>
+        <v>4.756736</v>
       </c>
       <c r="I18">
-        <v>0.2045120273764186</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J18">
-        <v>0.2045120273764186</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.897941217831048</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N18">
-        <v>0.897941217831048</v>
+        <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.01181103953983894</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P18">
-        <v>0.01181103953983894</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q18">
-        <v>5.9475609690855</v>
+        <v>96.81568602220089</v>
       </c>
       <c r="R18">
-        <v>5.9475609690855</v>
+        <v>871.3411741998079</v>
       </c>
       <c r="S18">
-        <v>0.002415499641715503</v>
+        <v>0.03086703506356219</v>
       </c>
       <c r="T18">
-        <v>0.002415499641715503</v>
+        <v>0.03599767311586987</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.6235526902882</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H19">
-        <v>6.6235526902882</v>
+        <v>4.756736</v>
       </c>
       <c r="I19">
-        <v>0.2045120273764186</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J19">
-        <v>0.2045120273764186</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>56.7871225945224</v>
+        <v>0.132278</v>
       </c>
       <c r="N19">
-        <v>56.7871225945224</v>
+        <v>0.396834</v>
       </c>
       <c r="O19">
-        <v>0.7469475027972082</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P19">
-        <v>0.7469475027972082</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q19">
-        <v>376.1324986346747</v>
+        <v>0.2097371748693334</v>
       </c>
       <c r="R19">
-        <v>376.1324986346747</v>
+        <v>1.887634573824</v>
       </c>
       <c r="S19">
-        <v>0.1527597481408102</v>
+        <v>6.686896511108373E-05</v>
       </c>
       <c r="T19">
-        <v>0.1527597481408102</v>
+        <v>7.798375006567625E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.6235526902882</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H20">
-        <v>6.6235526902882</v>
+        <v>4.756736</v>
       </c>
       <c r="I20">
-        <v>0.2045120273764186</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J20">
-        <v>0.2045120273764186</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421752113583795</v>
+        <v>0.655122</v>
       </c>
       <c r="N20">
-        <v>0.421752113583795</v>
+        <v>1.965366</v>
       </c>
       <c r="O20">
-        <v>0.005547502209087931</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P20">
-        <v>0.005547502209087931</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q20">
-        <v>2.79349734656268</v>
+        <v>1.038747467264</v>
       </c>
       <c r="R20">
-        <v>2.79349734656268</v>
+        <v>9.348727205375999</v>
       </c>
       <c r="S20">
-        <v>0.001134530923655734</v>
+        <v>0.0003311762361201665</v>
       </c>
       <c r="T20">
-        <v>0.001134530923655734</v>
+        <v>0.0003862234862223949</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.6235526902882</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H21">
-        <v>6.6235526902882</v>
+        <v>4.756736</v>
       </c>
       <c r="I21">
-        <v>0.2045120273764186</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J21">
-        <v>0.2045120273764186</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.918771390257</v>
+        <v>19.068426</v>
       </c>
       <c r="N21">
-        <v>17.918771390257</v>
+        <v>38.136852</v>
       </c>
       <c r="O21">
-        <v>0.2356939554538648</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P21">
-        <v>0.2356939554538648</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q21">
-        <v>118.685926448596</v>
+        <v>30.234489472512</v>
       </c>
       <c r="R21">
-        <v>118.685926448596</v>
+        <v>181.406936835072</v>
       </c>
       <c r="S21">
-        <v>0.0482022486702372</v>
+        <v>0.009639440518584206</v>
       </c>
       <c r="T21">
-        <v>0.0482022486702372</v>
+        <v>0.007494455451548216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.08854</v>
+      </c>
+      <c r="H22">
+        <v>16.17708</v>
+      </c>
+      <c r="I22">
+        <v>0.2117900291627375</v>
+      </c>
+      <c r="J22">
+        <v>0.1519182783060917</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.633172</v>
+      </c>
+      <c r="O22">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P22">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q22">
+        <v>9.79568568296</v>
+      </c>
+      <c r="R22">
+        <v>58.77411409776</v>
+      </c>
+      <c r="S22">
+        <v>0.003123086618197646</v>
+      </c>
+      <c r="T22">
+        <v>0.002428131952916118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.08854</v>
+      </c>
+      <c r="H23">
+        <v>16.17708</v>
+      </c>
+      <c r="I23">
+        <v>0.2117900291627375</v>
+      </c>
+      <c r="J23">
+        <v>0.1519182783060917</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N23">
+        <v>183.180478</v>
+      </c>
+      <c r="O23">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P23">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q23">
+        <v>493.88754117404</v>
+      </c>
+      <c r="R23">
+        <v>2963.32524704424</v>
+      </c>
+      <c r="S23">
+        <v>0.1574625422514674</v>
+      </c>
+      <c r="T23">
+        <v>0.1224237035247018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.08854</v>
+      </c>
+      <c r="H24">
+        <v>16.17708</v>
+      </c>
+      <c r="I24">
+        <v>0.2117900291627375</v>
+      </c>
+      <c r="J24">
+        <v>0.1519182783060917</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.132278</v>
+      </c>
+      <c r="N24">
+        <v>0.396834</v>
+      </c>
+      <c r="O24">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P24">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q24">
+        <v>1.06993589412</v>
+      </c>
+      <c r="R24">
+        <v>6.41961536472</v>
+      </c>
+      <c r="S24">
+        <v>0.0003411198134979144</v>
+      </c>
+      <c r="T24">
+        <v>0.0002652132393961847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.08854</v>
+      </c>
+      <c r="H25">
+        <v>16.17708</v>
+      </c>
+      <c r="I25">
+        <v>0.2117900291627375</v>
+      </c>
+      <c r="J25">
+        <v>0.1519182783060917</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.655122</v>
+      </c>
+      <c r="N25">
+        <v>1.965366</v>
+      </c>
+      <c r="O25">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P25">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q25">
+        <v>5.29898050188</v>
+      </c>
+      <c r="R25">
+        <v>31.79388301128</v>
+      </c>
+      <c r="S25">
+        <v>0.001689435087152668</v>
+      </c>
+      <c r="T25">
+        <v>0.001313499053657504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.08854</v>
+      </c>
+      <c r="H26">
+        <v>16.17708</v>
+      </c>
+      <c r="I26">
+        <v>0.2117900291627375</v>
+      </c>
+      <c r="J26">
+        <v>0.1519182783060917</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.068426</v>
+      </c>
+      <c r="N26">
+        <v>38.136852</v>
+      </c>
+      <c r="O26">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P26">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q26">
+        <v>154.23572643804</v>
+      </c>
+      <c r="R26">
+        <v>616.94290575216</v>
+      </c>
+      <c r="S26">
+        <v>0.04917384539242188</v>
+      </c>
+      <c r="T26">
+        <v>0.02548773053542</v>
       </c>
     </row>
   </sheetData>
